--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic 2015 Promos (PM15).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic 2015 Promos (PM15).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,518 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chasm Skulker</t>
+          <t>('Chasm Skulker', ['{2}{U}', 'Creature — Squid Horror', 'Whenever you draw a card, put a +1/+1 counter on Chasm Skulker.', 'When Chasm Skulker dies, create X 1/1 blue Squid creature tokens with islandwalk, where X is the number of +1/+1 counters on Chasm Skulker. (They can’t be blocked as long as defending player controls an Island.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{U}</t>
+          <t>('Chief Engineer', ['{1}{U}', 'Creature — Vedalken Artificer', 'Artifact spells you cast have convoke. (Your creatures can help cast those spells. Each creature you tap while casting an artifact spell pays for {1} or one mana of that creature’s color.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Squid Horror</t>
+          <t>('Goblin Rabblemaster', ['{2}{R}', 'Creature — Goblin Warrior', 'Other Goblin creatures you control attack each combat if able.', 'At the beginning of combat on your turn, create a 1/1 red Goblin creature token with haste.', 'Whenever Goblin Rabblemaster attacks, it gets +1/+0 until end of turn for each other attacking Goblin.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Whenever you draw a card, put a +1/+1 counter on Chasm Skulker.</t>
+          <t>('Indulgent Tormentor', ['{3}{B}{B}', 'Creature — Demon', 'Flying', 'At the beginning of your upkeep, draw a card unless target opponent sacrifices a creature or pays 3 life.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>When Chasm Skulker dies, create X 1/1 blue Squid creature tokens with islandwalk, where X is the number of +1/+1 counters on Chasm Skulker. (They can’t be blocked as long as defending player controls an Island.)</t>
+          <t>("In Garruk's Wake", ['{7}{B}{B}', 'Sorcery', 'Destroy all creatures you don’t control and all planeswalkers you don’t control.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Mercurial Pretender', ['{4}{U}', 'Creature — Shapeshifter', 'You may have Mercurial Pretender enter the battlefield as a copy of a creature you control, except it has “{2}{U}{U}: Return this creature to its owner’s hand.”', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chief Engineer</t>
+          <t>('Ob Nixilis, Unshackled', ['{4}{B}{B}', 'Legendary Creature — Demon', 'Flying, trample', 'Whenever an opponent searches their library, that player sacrifices a creature and loses 10 life.', 'Whenever another creature dies, put a +1/+1 counter on Ob Nixilis, Unshackled.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{1}{U}</t>
+          <t>('Phytotitan', ['{4}{G}{G}', 'Creature — Plant Elemental', 'When Phytotitan dies, return it to the battlefield tapped under its owner’s control at the beginning of their next upkeep.', '7/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Creature — Vedalken Artificer</t>
+          <t>('Reclamation Sage', ['{2}{G}', 'Creature — Elf Shaman', 'When Reclamation Sage enters the battlefield, you may destroy target artifact or enchantment.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Artifact spells you cast have convoke. (Your creatures can help cast those spells. Each creature you tap while casting an artifact spell pays for {1} or one mana of that creature’s color.)</t>
+          <t>('Resolute Archangel', ['{5}{W}{W}', 'Creature — Angel', 'Flying', 'When Resolute Archangel enters the battlefield, if your life total is less than your starting life total, it becomes equal to your starting life total.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>('Siege Dragon', ['{5}{R}{R}', 'Creature — Dragon', 'Flying', 'When Siege Dragon enters the battlefield, destroy all Walls your opponents control.', 'Whenever Siege Dragon attacks, if defending player controls no Walls, it deals 2 damage to each creature without flying that player controls.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Goblin Rabblemaster</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{2}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Other Goblin creatures you control attack each combat if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>At the beginning of combat on your turn, create a 1/1 red Goblin creature token with haste.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Whenever Goblin Rabblemaster attacks, it gets +1/+0 until end of turn for each other attacking Goblin.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Indulgent Tormentor</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Creature — Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, draw a card unless target opponent sacrifices a creature or pays 3 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>5/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>In Garruk's Wake</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{7}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Destroy all creatures you don’t control and all planeswalkers you don’t control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>In Garruk's Wake</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{7}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Destroy all creatures you don’t control and all planeswalkers you don’t control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mercurial Pretender</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{4}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Creature — Shapeshifter</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>You may have Mercurial Pretender enter the battlefield as a copy of a creature you control, except it has “{2}{U}{U}: Return this creature to its owner’s hand.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Ob Nixilis, Unshackled</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Flying, trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Whenever an opponent searches their library, that player sacrifices a creature and loses 10 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Whenever another creature dies, put a +1/+1 counter on Ob Nixilis, Unshackled.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Phytotitan</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>{4}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Creature — Plant Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>When Phytotitan dies, return it to the battlefield tapped under its owner’s control at the beginning of their next upkeep.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>7/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Reclamation Sage</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Creature — Elf Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>When Reclamation Sage enters the battlefield, you may destroy target artifact or enchantment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Resolute Archangel</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>{5}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>When Resolute Archangel enters the battlefield, if your life total is less than your starting life total, it becomes equal to your starting life total.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Siege Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>{5}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>When Siege Dragon enters the battlefield, destroy all Walls your opponents control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Whenever Siege Dragon attacks, if defending player controls no Walls, it deals 2 damage to each creature without flying that player controls.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Soul of New Phyrexia</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>{6}</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>{5}: Permanents you control gain indestructible until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>{5}, Exile Soul of New Phyrexia from your graveyard: Permanents you control gain indestructible until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>6/6</t>
+          <t>('Soul of New Phyrexia', ['{6}', 'Artifact Creature — Avatar', 'Trample', '{5}: Permanents you control gain indestructible until end of turn.', '{5}, Exile Soul of New Phyrexia from your graveyard: Permanents you control gain indestructible until end of turn.', '6/6'])</t>
         </is>
       </c>
     </row>
